--- a/scripts/receipts/revenue_report.xlsx
+++ b/scripts/receipts/revenue_report.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Verified Transactions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Revenue by Course" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Enrollments by Course" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="All Verified Enrollments" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Enrollment Breakdown" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Revenue by Course" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Revenue by Month" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,27 +461,51 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$269,000.00</t>
+          <t>$272,000.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total Verified Enrollments</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>62</v>
+          <t>Total Course Revenue (Base Price)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>$192,000.00</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Number of Courses</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>Total Certificate Revenue</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$80,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Verified Enrollments</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total Courses Offered</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -496,7 +520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +551,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Course Price</t>
+          <t>Course Base Price</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Certificate Price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Enrollment Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Amount Paid</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>With Certificate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Transaction Submitted Date</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Receipt Amount</t>
+          <t>Enrollment Month</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Enrollment Month</t>
+          <t>Revenue from Certificate</t>
         </is>
       </c>
     </row>
@@ -583,25 +607,25 @@
       <c r="E2" t="n">
         <v>3000</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>45963.2246728881</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>7000</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>45963.40605612835</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="3">
@@ -626,25 +650,25 @@
       <c r="E3" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>45963.79860769121</v>
       </c>
-      <c r="G3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>45963.80008991806</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -665,25 +689,25 @@
       <c r="E4" t="n">
         <v>3000</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>45963.46269646686</v>
       </c>
-      <c r="G4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>45963.46300212452</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -708,25 +732,25 @@
       <c r="E5" t="n">
         <v>3000</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>45963.62894430281</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7000</v>
       </c>
-      <c r="H5" t="b">
+      <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>45963.63089811488</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="6">
@@ -751,25 +775,25 @@
       <c r="E6" t="n">
         <v>3000</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>45963.64047667389</v>
       </c>
-      <c r="G6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>45963.64116938329</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -790,25 +814,25 @@
       <c r="E7" t="n">
         <v>3000</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>45970.49659001239</v>
       </c>
-      <c r="G7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>45970.49818315489</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -829,25 +853,25 @@
       <c r="E8" t="n">
         <v>3000</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>45965.55238430205</v>
       </c>
-      <c r="G8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>45965.6907089571</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -872,25 +896,25 @@
       <c r="E9" t="n">
         <v>3000</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>45965.7457159953</v>
       </c>
-      <c r="G9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>45965.74837057594</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -915,25 +939,25 @@
       <c r="E10" t="n">
         <v>3000</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>45967.57092467268</v>
       </c>
-      <c r="G10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>45967.57140042501</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -954,25 +978,25 @@
       <c r="E11" t="n">
         <v>3000</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>45968.3455547938</v>
       </c>
-      <c r="G11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>45968.35783088153</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -997,25 +1021,25 @@
       <c r="E12" t="n">
         <v>3000</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>45963.76071447336</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>7000</v>
       </c>
-      <c r="H12" t="b">
+      <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>45963.91567705356</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="13">
@@ -1040,25 +1064,25 @@
       <c r="E13" t="n">
         <v>3000</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>45964.35045145281</v>
       </c>
-      <c r="G13" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>45964.35168466334</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1083,25 +1107,25 @@
       <c r="E14" t="n">
         <v>3000</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>45963.9301246875</v>
       </c>
-      <c r="G14" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>45963.93039025502</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1122,25 +1146,25 @@
       <c r="E15" t="n">
         <v>3000</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>45964.20567786416</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>7000</v>
       </c>
-      <c r="H15" t="b">
+      <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>45964.32518576099</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="16">
@@ -1161,25 +1185,25 @@
       <c r="E16" t="n">
         <v>3000</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>45964.2720568626</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>7000</v>
       </c>
-      <c r="H16" t="b">
+      <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>45964.27440640009</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="17">
@@ -1204,25 +1228,25 @@
       <c r="E17" t="n">
         <v>3000</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>45964.31943453715</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>7000</v>
       </c>
-      <c r="H17" t="b">
+      <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>45964.37320685887</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="18">
@@ -1247,25 +1271,25 @@
       <c r="E18" t="n">
         <v>3000</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>45964.40525935691</v>
       </c>
-      <c r="G18" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>45964.40558505386</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1290,25 +1314,25 @@
       <c r="E19" t="n">
         <v>3000</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>45964.49953102331</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>7000</v>
       </c>
-      <c r="H19" t="b">
+      <c r="I19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>45964.50181122449</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="20">
@@ -1333,25 +1357,25 @@
       <c r="E20" t="n">
         <v>3000</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>45970.77541990297</v>
       </c>
-      <c r="G20" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>45970.77815002109</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H20" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1376,25 +1400,25 @@
       <c r="E21" t="n">
         <v>3000</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>45966.59967145086</v>
       </c>
-      <c r="G21" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>45966.60031439295</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H21" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1419,25 +1443,25 @@
       <c r="E22" t="n">
         <v>3000</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>45968.65829218658</v>
       </c>
-      <c r="G22" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>45968.66024153872</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H22" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1462,25 +1486,25 @@
       <c r="E23" t="n">
         <v>3000</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>45964.58171804898</v>
       </c>
-      <c r="G23" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>45964.63192901384</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H23" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1505,25 +1529,25 @@
       <c r="E24" t="n">
         <v>3000</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>45966.49086572689</v>
       </c>
-      <c r="G24" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>45966.50075996479</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H24" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1548,25 +1572,25 @@
       <c r="E25" t="n">
         <v>3000</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>45966.50379703788</v>
       </c>
-      <c r="G25" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>45966.50547835814</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H25" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1591,25 +1615,25 @@
       <c r="E26" t="n">
         <v>3000</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>45964.63582159385</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>7000</v>
       </c>
-      <c r="H26" t="b">
+      <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="n">
-        <v>45964.64119753919</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="27">
@@ -1634,25 +1658,25 @@
       <c r="E27" t="n">
         <v>3000</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G27" s="2" t="n">
         <v>45964.67040352902</v>
       </c>
-      <c r="G27" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>45964.67245496572</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H27" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1677,25 +1701,25 @@
       <c r="E28" t="n">
         <v>3000</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>45964.72736789512</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>7000</v>
       </c>
-      <c r="H28" t="b">
+      <c r="I28" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="n">
-        <v>45964.73831325741</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="29">
@@ -1720,25 +1744,25 @@
       <c r="E29" t="n">
         <v>3000</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G29" s="2" t="n">
         <v>45966.76504109553</v>
       </c>
-      <c r="G29" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>45966.76531583146</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1763,25 +1787,25 @@
       <c r="E30" t="n">
         <v>3000</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>45965.16243099266</v>
       </c>
-      <c r="G30" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>45965.16460524796</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H30" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1806,25 +1830,25 @@
       <c r="E31" t="n">
         <v>3000</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G31" s="2" t="n">
         <v>45965.66097814954</v>
       </c>
-      <c r="G31" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>45965.66284831457</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H31" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1849,25 +1873,25 @@
       <c r="E32" t="n">
         <v>3000</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>45966.30396312701</v>
       </c>
-      <c r="G32" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>45966.30444965586</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1892,25 +1916,25 @@
       <c r="E33" t="n">
         <v>3000</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G33" s="2" t="n">
         <v>45966.34014083605</v>
       </c>
-      <c r="G33" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>45966.34103038687</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H33" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1935,25 +1959,25 @@
       <c r="E34" t="n">
         <v>3000</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G34" s="2" t="n">
         <v>45966.35191292433</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>7000</v>
       </c>
-      <c r="H34" t="b">
+      <c r="I34" t="b">
         <v>1</v>
       </c>
-      <c r="I34" s="2" t="n">
-        <v>45966.35268401446</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="35">
@@ -1978,25 +2002,25 @@
       <c r="E35" t="n">
         <v>3000</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G35" s="2" t="n">
         <v>45966.66985425855</v>
       </c>
-      <c r="G35" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>45966.67036747214</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H35" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2021,25 +2045,25 @@
       <c r="E36" t="n">
         <v>3000</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G36" s="2" t="n">
         <v>45966.70096066752</v>
       </c>
-      <c r="G36" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>45966.70149437219</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H36" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2064,25 +2088,25 @@
       <c r="E37" t="n">
         <v>3000</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G37" s="2" t="n">
         <v>45966.71165793692</v>
       </c>
-      <c r="G37" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>45966.80775071411</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2103,25 +2127,25 @@
       <c r="E38" t="n">
         <v>3000</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G38" s="2" t="n">
         <v>45967.45294940751</v>
       </c>
-      <c r="G38" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>45967.50519009795</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H38" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2146,25 +2170,25 @@
       <c r="E39" t="n">
         <v>3000</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G39" s="2" t="n">
         <v>45970.28923473639</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>7000</v>
       </c>
-      <c r="H39" t="b">
+      <c r="I39" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="2" t="n">
-        <v>45970.28996049193</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="40">
@@ -2189,25 +2213,25 @@
       <c r="E40" t="n">
         <v>3000</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G40" s="2" t="n">
         <v>45966.79822141995</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>7000</v>
       </c>
-      <c r="H40" t="b">
+      <c r="I40" t="b">
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="n">
-        <v>45966.79913253684</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="41">
@@ -2232,25 +2256,25 @@
       <c r="E41" t="n">
         <v>3000</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G41" s="2" t="n">
         <v>45966.72467644448</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>7000</v>
       </c>
-      <c r="H41" t="b">
+      <c r="I41" t="b">
         <v>1</v>
       </c>
-      <c r="I41" s="2" t="n">
-        <v>45966.72736151819</v>
-      </c>
-      <c r="J41" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="42">
@@ -2271,25 +2295,25 @@
       <c r="E42" t="n">
         <v>3000</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>45966.7590868183</v>
       </c>
-      <c r="G42" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>45966.75933512095</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H42" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2310,25 +2334,25 @@
       <c r="E43" t="n">
         <v>3000</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>45966.84244632251</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>7000</v>
       </c>
-      <c r="H43" t="b">
+      <c r="I43" t="b">
         <v>1</v>
       </c>
-      <c r="I43" s="2" t="n">
-        <v>45966.8431932934</v>
-      </c>
-      <c r="J43" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="44">
@@ -2353,25 +2377,25 @@
       <c r="E44" t="n">
         <v>3000</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G44" s="2" t="n">
         <v>45967.32339596565</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>45967.32497740923</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2396,25 +2420,25 @@
       <c r="E45" t="n">
         <v>3000</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G45" s="2" t="n">
         <v>45967.38070104719</v>
       </c>
-      <c r="G45" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>45968.22193600971</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H45" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2439,25 +2463,25 @@
       <c r="E46" t="n">
         <v>3000</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>45967.44952673365</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>7000</v>
       </c>
-      <c r="H46" t="b">
+      <c r="I46" t="b">
         <v>1</v>
       </c>
-      <c r="I46" s="2" t="n">
-        <v>45967.45226561838</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="47">
@@ -2482,25 +2506,25 @@
       <c r="E47" t="n">
         <v>3000</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G47" s="2" t="n">
         <v>45967.47401025672</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>14000</v>
       </c>
-      <c r="H47" t="b">
+      <c r="I47" t="b">
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="n">
-        <v>45967.47502028762</v>
-      </c>
-      <c r="J47" t="n">
-        <v>14000</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="48">
@@ -2521,25 +2545,25 @@
       <c r="E48" t="n">
         <v>3000</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="2" t="n">
         <v>45967.4758421175</v>
       </c>
-      <c r="G48" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>45967.47657214442</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H48" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2560,25 +2584,25 @@
       <c r="E49" t="n">
         <v>3000</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G49" s="2" t="n">
         <v>45967.67707060724</v>
       </c>
-      <c r="G49" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>45967.67741011173</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H49" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2603,25 +2627,25 @@
       <c r="E50" t="n">
         <v>3000</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G50" s="2" t="n">
         <v>45967.72535644447</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>7000</v>
       </c>
-      <c r="H50" t="b">
+      <c r="I50" t="b">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="n">
-        <v>45967.7260336237</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4000</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="51">
@@ -2642,25 +2666,25 @@
       <c r="E51" t="n">
         <v>3000</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G51" s="2" t="n">
         <v>45967.75961171772</v>
       </c>
-      <c r="G51" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>45967.76100428508</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H51" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2685,25 +2709,25 @@
       <c r="E52" t="n">
         <v>3000</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G52" s="2" t="n">
         <v>45967.76077946044</v>
       </c>
-      <c r="G52" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>45967.76730323384</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H52" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2724,25 +2748,25 @@
       <c r="E53" t="n">
         <v>3000</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G53" s="2" t="n">
         <v>45967.76172400804</v>
       </c>
-      <c r="G53" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>45967.76222851143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H53" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2763,25 +2787,25 @@
       <c r="E54" t="n">
         <v>3000</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G54" s="2" t="n">
         <v>45967.80568261027</v>
       </c>
-      <c r="G54" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>45967.80583682031</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H54" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2800,86 +2824,86 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Basic Clinical Chemistry Workshop</t>
+          <t>Liver Workshop</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>3000</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G55" s="2" t="n">
         <v>45967.8182589076</v>
       </c>
-      <c r="G55" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>45967.81856562065</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6000</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="H55" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5196453272</v>
+        <v>1921557203</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>اموونه</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>♡</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Gram Negative Bacteria</t>
+          <t>Basic Clinical Chemistry Workshop</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>3000</v>
       </c>
-      <c r="F56" s="2" t="n">
-        <v>45968.35886865057</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>45968.3601064141</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="F56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45967.8182589076</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1571771259</v>
+        <v>5196453272</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aisha</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Mohammed</t>
-        </is>
-      </c>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>Gram Negative Bacteria</t>
@@ -2888,37 +2912,41 @@
       <c r="E57" t="n">
         <v>3000</v>
       </c>
-      <c r="F57" s="2" t="n">
-        <v>45968.49669082847</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>45968.49809494035</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="F57" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45968.35886865057</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5486938639</v>
+        <v>1571771259</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>♥ ____ ♥</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>Aisha</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mohammed</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>Gram Negative Bacteria</t>
@@ -2927,34 +2955,34 @@
       <c r="E58" t="n">
         <v>3000</v>
       </c>
-      <c r="F58" s="2" t="n">
-        <v>45968.63575327652</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>45968.79986696027</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="F58" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45968.49669082847</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5209676083</v>
+        <v>5486938639</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dr/Rähëg</t>
+          <t>♥ ____ ♥</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2966,41 +2994,37 @@
       <c r="E59" t="n">
         <v>3000</v>
       </c>
-      <c r="F59" s="2" t="n">
-        <v>45969.34862782725</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>45969.36503558775</v>
-      </c>
-      <c r="J59" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="F59" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45968.63575327652</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1422257628</v>
+        <v>5209676083</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Eiman</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Abdrhman</t>
-        </is>
-      </c>
+          <t>Dr/Rähëg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>Gram Negative Bacteria</t>
@@ -3009,39 +3033,39 @@
       <c r="E60" t="n">
         <v>3000</v>
       </c>
-      <c r="F60" s="2" t="n">
-        <v>45969.24082457757</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="F60" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45969.34862782725</v>
+      </c>
+      <c r="H60" t="n">
         <v>7000</v>
       </c>
-      <c r="H60" t="b">
+      <c r="I60" t="b">
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="n">
-        <v>45969.39908701038</v>
-      </c>
-      <c r="J60" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5241732680</v>
+        <v>1422257628</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ethar</t>
+          <t>Eiman</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Abdrhman</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3052,107 +3076,150 @@
       <c r="E61" t="n">
         <v>3000</v>
       </c>
-      <c r="F61" s="2" t="n">
-        <v>45969.48407191531</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45969.24082457757</v>
+      </c>
+      <c r="H61" t="n">
         <v>7000</v>
       </c>
-      <c r="H61" t="b">
+      <c r="I61" t="b">
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="n">
-        <v>45969.4898566675</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7077900751</v>
+        <v>5241732680</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rabaa</t>
+          <t>Ethar</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mohammed</t>
+          <t>Salah</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Liver Workshop</t>
+          <t>Gram Negative Bacteria</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>3000</v>
       </c>
-      <c r="F62" s="2" t="n">
-        <v>45969.78288257103</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="n">
-        <v>45969.78514823558</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="F62" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45969.48407191531</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>7077900751</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Rabaa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mohammed</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Liver Workshop</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45969.78288257103</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>1745867782</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Hg</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>Intestinal Protozoa Workshop</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="E64" t="n">
         <v>2000</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F64" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G64" s="2" t="n">
         <v>45970.33739598052</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H64" t="n">
         <v>2000</v>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>45970.33849328076</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3182,7 +3249,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Revenue</t>
+          <t>Without Certificate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>With Certificate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Enrollments</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3270,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6000</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3203,7 +3286,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36000</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3213,7 +3302,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74000</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -3223,7 +3318,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3233,7 +3334,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144000</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -3243,7 +3350,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7000</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3386,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Number of Enrollments</t>
+          <t>Total Revenue</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3397,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
@@ -3294,7 +3407,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="4">
@@ -3304,7 +3417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="5">
@@ -3314,7 +3427,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -3324,7 +3437,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="7">
@@ -3334,7 +3447,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3488,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>269000</v>
+        <v>272000</v>
       </c>
     </row>
   </sheetData>
